--- a/학습자료/단답형/영어_단어_기출.xlsx
+++ b/학습자료/단답형/영어_단어_기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3257,7 +3257,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>be contigent upon</t>
+          <t>be contingent upon</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -4357,7 +4357,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170">
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
@@ -6282,7 +6282,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -6696,6 +6696,206 @@
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ancient</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>고대의, 구식의</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Day27</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>unrelated</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>관련 없는</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Day27</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>otherworldly</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>비현실적인, 공상적인</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Day27</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>initiate</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>시작하다, 가입시키다</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Day27</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>resume</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>재개하다</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Day27</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>interrupt</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>방해하다, 중단시키다</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Day27</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>run over</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>치다, 훑어보다</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Day27</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ask out</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>신청하다</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Day27</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/학습자료/단답형/영어_단어_기출.xlsx
+++ b/학습자료/단답형/영어_단어_기출.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="46">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="47">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="59">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="62">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105">
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113">
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="117">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="122">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="130">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="137">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="144">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="166">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
@@ -4907,7 +4907,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="180">
@@ -5057,7 +5057,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="190">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="193">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="197">
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="204">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="213">
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="218">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221">
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234">
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="248">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="260">

--- a/학습자료/단답형/영어_단어_기출.xlsx
+++ b/학습자료/단답형/영어_단어_기출.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="51">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56">
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="70">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="71">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="97">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="100">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="121">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="123">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="130">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="133">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="147">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="154">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="159">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="169">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="175">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="190">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="204">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="213">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="249">

--- a/학습자료/단답형/영어_단어_기출.xlsx
+++ b/학습자료/단답형/영어_단어_기출.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E260"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6899,6 +6899,443 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>carry out</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>수행하다</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Day28</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>pass over</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>제외시키다, 제외하다</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Day28</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>entice</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>유혹하다, 유인하다, 부추기다</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Day28</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>fertile</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>비옥한</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Day28</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>fultile</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>헛된</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Day28</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>stick one's nose in</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간섭하다, 참견하다</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Day28</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>hurry</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>서두르다, 재촉하다</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Day28</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>sniff</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>냄새 맡다</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Day28</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>resign</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>사직하다, 퇴직하다</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Day28</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>unprecedented</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>전례 없는, 유례없는, 비길 데 없는</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>mediocre</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>보통의, 평범한</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>suggestive</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>암시적인, 암시하는</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>provocative</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>도발적인, 자극적인</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>overlap</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>겹치다, 포개다</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>equivalent</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>동등한</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>associative</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>결합의, 연합의</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>disparate</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>다른</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>affirmative</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>긍정적인, 단정적인</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>aloof</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>냉담한</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Day29</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/영어_단어_기출.xlsx
+++ b/학습자료/단답형/영어_단어_기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E279"/>
+  <dimension ref="A1:E299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7336,6 +7336,466 @@
       </c>
       <c r="E279" t="inlineStr"/>
     </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>adverse</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>부정적인, 불리한, 반대하는</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>allusive</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>암시적인</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>turn into</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>바뀌다</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>do without</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>~없이 지내다</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>put on</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>상연하다</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>give up</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>포기하다</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>rebellious</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>반항적인</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>passive</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 순종하는</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>delirious</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>기뻐 날뛰는, 무아지경의</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>sporadic</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>이따금 일어나는, 우발적인</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Day30</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>prodigal</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>낭비하는</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>perjury</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>허위, 거짓</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>unstable</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>불안정한</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>pernicious</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>치명적인</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>resurgence</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>부활, 재기</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>disappearance</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>소멸</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동기, 자극, 유인</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>부족</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>nocturnal</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>밤의, 야간의, 야행성의</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>solitary</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>혼자의, 고독한</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Day31</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/영어_단어_기출.xlsx
+++ b/학습자료/단답형/영어_단어_기출.xlsx
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -6920,7 +6920,9 @@
           <t>Day28</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr"/>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6943,7 +6945,9 @@
           <t>Day28</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6966,7 +6970,9 @@
           <t>Day28</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr"/>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6989,7 +6995,9 @@
           <t>Day28</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7012,7 +7020,9 @@
           <t>Day28</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
+      <c r="E265" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7035,7 +7045,9 @@
           <t>Day28</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
+      <c r="E266" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7058,7 +7070,9 @@
           <t>Day28</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7081,7 +7095,9 @@
           <t>Day28</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7104,7 +7120,9 @@
           <t>Day28</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7127,7 +7145,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
+      <c r="E270" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7150,7 +7170,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7173,7 +7195,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7196,7 +7220,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
+      <c r="E273" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7219,7 +7245,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr"/>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7242,7 +7270,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr"/>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7265,7 +7295,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
+      <c r="E276" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7288,7 +7320,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7311,7 +7345,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7334,7 +7370,9 @@
           <t>Day29</t>
         </is>
       </c>
-      <c r="E279" t="inlineStr"/>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7357,7 +7395,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr"/>
+      <c r="E280" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7380,7 +7420,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E281" t="inlineStr"/>
+      <c r="E281" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7403,7 +7445,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E282" t="inlineStr"/>
+      <c r="E282" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7426,7 +7470,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E283" t="inlineStr"/>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7449,7 +7495,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr"/>
+      <c r="E284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7472,7 +7520,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E285" t="inlineStr"/>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7495,7 +7545,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E286" t="inlineStr"/>
+      <c r="E286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7518,7 +7570,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E287" t="inlineStr"/>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7541,7 +7595,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr"/>
+      <c r="E288" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7564,7 +7620,9 @@
           <t>Day30</t>
         </is>
       </c>
-      <c r="E289" t="inlineStr"/>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7587,7 +7645,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E290" t="inlineStr"/>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7610,7 +7670,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E291" t="inlineStr"/>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -7633,7 +7695,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E292" t="inlineStr"/>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7656,7 +7720,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr"/>
+      <c r="E293" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -7679,7 +7745,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr"/>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7702,7 +7770,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E295" t="inlineStr"/>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -7725,7 +7795,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E296" t="inlineStr"/>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7748,7 +7820,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E297" t="inlineStr"/>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7771,7 +7845,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr"/>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7794,7 +7870,9 @@
           <t>Day31</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr"/>
+      <c r="E299" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
